--- a/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/cab/rbac.user.xlsx
+++ b/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/cab/rbac.user.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FB3E6D-8C96-1C48-BC85-585D88D489C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2838FB8-5AA4-E14B-B4FD-E04005B60C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="58160" yWindow="-4340" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -23,8 +23,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="205">
   <si>
     <t>key</t>
   </si>
@@ -665,6 +668,36 @@
   </si>
   <si>
     <t>JSON:plugin/ke/rule.form/sec.user.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按类型搜索用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.user.search.identifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1b80b876-611c-41f3-b74e-a9585160155b</t>
+  </si>
+  <si>
+    <t>85522bf1-2f68-4e57-9cff-40c4d0c78f25</t>
+  </si>
+  <si>
+    <t>act.user.search.identifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/search/:identifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按类搜索</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1308,19 +1341,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A2:K64"/>
+  <dimension ref="A2:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45:K45"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="2" width="54.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.83203125" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.1640625" style="4" bestFit="1" customWidth="1"/>
@@ -1700,7 +1733,7 @@
         <v>51</v>
       </c>
       <c r="B28" s="16" t="str">
-        <f t="shared" ref="B28:B42" si="0">A48</f>
+        <f t="shared" ref="B28:B33" si="0">A49</f>
         <v>b39307d8-9746-4662-97e4-f2a934f1f7ac</v>
       </c>
       <c r="C28" s="16" t="str">
@@ -1842,114 +1875,114 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="10" t="s">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="B33" s="16" t="str">
         <f t="shared" si="0"/>
+        <v>1b80b876-611c-41f3-b74e-a9585160155b</v>
+      </c>
+      <c r="C33" s="16" t="str">
+        <f>A15</f>
+        <v>51c4638a-be7b-4b82-973c-ffe7b964f1ae</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="H33" s="12">
+        <v>1</v>
+      </c>
+      <c r="I33" s="12"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="16" t="str">
+        <f>A55</f>
         <v>09f17c21-a278-411c-8921-071a13e14170</v>
       </c>
-      <c r="C33" s="16" t="str">
+      <c r="C34" s="16" t="str">
         <f>A17</f>
         <v>34e86418-ce10-4a64-98be-b32a7c1f27b0</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D34" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E34" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F34" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="G34" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H34" s="12">
         <v>8</v>
       </c>
-      <c r="I33" s="12"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="10" t="s">
+      <c r="I34" s="12"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="B35" s="16" t="str">
+        <f>A56</f>
         <v>2acb715a-0183-493a-82f0-4c643326e570</v>
       </c>
-      <c r="C34" s="16" t="str">
+      <c r="C35" s="16" t="str">
         <f>A18</f>
         <v>41512f63-aa24-4018-b013-dff96884fef0</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D35" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E35" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F35" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G35" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H35" s="12">
         <v>12</v>
-      </c>
-      <c r="I34" s="12"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>faace475-0802-4200-920b-dfe9d7162601</v>
-      </c>
-      <c r="C35" s="16" t="str">
-        <f>A19</f>
-        <v>8ec5e540-49e6-4f73-a28c-8842774642e7</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H35" s="12">
-        <v>3</v>
       </c>
       <c r="I35" s="12"/>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B36" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>9d799819-f526-4ec8-8f94-92a7f8230d60</v>
+        <f>A57</f>
+        <v>faace475-0802-4200-920b-dfe9d7162601</v>
       </c>
       <c r="C36" s="16" t="str">
         <f>A19</f>
         <v>8ec5e540-49e6-4f73-a28c-8842774642e7</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>53</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H36" s="12">
         <v>3</v>
@@ -1958,143 +1991,143 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B37" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>b0e8e222-8c3f-43b8-b89b-306ca86f5331</v>
+        <f>A58</f>
+        <v>9d799819-f526-4ec8-8f94-92a7f8230d60</v>
       </c>
       <c r="C37" s="16" t="str">
         <f>A19</f>
         <v>8ec5e540-49e6-4f73-a28c-8842774642e7</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>86</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H37" s="12">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I37" s="12"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B38" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>1255c880-dbc4-4668-a3cf-2da4ff87fb97</v>
+        <f>A59</f>
+        <v>b0e8e222-8c3f-43b8-b89b-306ca86f5331</v>
       </c>
       <c r="C38" s="16" t="str">
-        <f>A20</f>
-        <v>26d7ff5a-8e0e-4de2-8781-ede8e3fde732</v>
+        <f>A19</f>
+        <v>8ec5e540-49e6-4f73-a28c-8842774642e7</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H38" s="12">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I38" s="12"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B39" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>597d1b49-16e2-4289-8b88-818a848a3e48</v>
+        <f>A60</f>
+        <v>1255c880-dbc4-4668-a3cf-2da4ff87fb97</v>
       </c>
       <c r="C39" s="16" t="str">
         <f>A20</f>
         <v>26d7ff5a-8e0e-4de2-8781-ede8e3fde732</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H39" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B40" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>04df88f2-8518-4607-81fa-cd9c9649de0a</v>
+        <f>A61</f>
+        <v>597d1b49-16e2-4289-8b88-818a848a3e48</v>
       </c>
       <c r="C40" s="16" t="str">
-        <f>A15</f>
-        <v>51c4638a-be7b-4b82-973c-ffe7b964f1ae</v>
+        <f>A20</f>
+        <v>26d7ff5a-8e0e-4de2-8781-ede8e3fde732</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H40" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I40" s="12"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B41" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>c1d475d8-6cdd-41df-953d-efb810049a74</v>
+        <f>A62</f>
+        <v>04df88f2-8518-4607-81fa-cd9c9649de0a</v>
       </c>
       <c r="C41" s="16" t="str">
         <f>A15</f>
         <v>51c4638a-be7b-4b82-973c-ffe7b964f1ae</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H41" s="12">
         <v>1</v>
@@ -2103,27 +2136,27 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="10" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="B42" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>7eb84731-444c-46d4-bc60-9868585eda43</v>
+        <f>A63</f>
+        <v>c1d475d8-6cdd-41df-953d-efb810049a74</v>
       </c>
       <c r="C42" s="16" t="str">
         <f>A15</f>
         <v>51c4638a-be7b-4b82-973c-ffe7b964f1ae</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="H42" s="12">
         <v>1</v>
@@ -2131,13 +2164,33 @@
       <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="4"/>
-      <c r="K43" s="14"/>
+      <c r="A43" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B43" s="16" t="str">
+        <f>A64</f>
+        <v>7eb84731-444c-46d4-bc60-9868585eda43</v>
+      </c>
+      <c r="C43" s="16" t="str">
+        <f>A15</f>
+        <v>51c4638a-be7b-4b82-973c-ffe7b964f1ae</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H43" s="12">
+        <v>1</v>
+      </c>
+      <c r="I43" s="12"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="14"/>
@@ -2149,137 +2202,115 @@
       <c r="K44" s="14"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="4"/>
+      <c r="K45" s="14"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C46" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="5" t="s">
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B47" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C47" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E47" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F47" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="G46" s="18" t="s">
+      <c r="G47" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="H46" s="18" t="s">
+      <c r="H47" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="I46" s="18" t="s">
+      <c r="I47" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="J46" s="5" t="s">
+      <c r="J47" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="K46" s="5" t="s">
+      <c r="K47" s="5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="7" t="s">
+    <row r="48" spans="1:11">
+      <c r="A48" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B48" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C48" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D48" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E48" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F48" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G48" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H48" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="I47" s="7" t="s">
+      <c r="I48" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="J47" s="7" t="s">
+      <c r="J48" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="K48" s="7" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="G48" s="12">
-        <v>1</v>
-      </c>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K48" s="11" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>170</v>
@@ -2288,25 +2319,29 @@
         <v>173</v>
       </c>
       <c r="G49" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
+      <c r="J49" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>170</v>
@@ -2315,7 +2350,7 @@
         <v>173</v>
       </c>
       <c r="G50" s="12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
@@ -2324,16 +2359,16 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>170</v>
@@ -2342,7 +2377,7 @@
         <v>173</v>
       </c>
       <c r="G51" s="12">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
@@ -2351,16 +2386,16 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>170</v>
@@ -2369,7 +2404,7 @@
         <v>173</v>
       </c>
       <c r="G52" s="12">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
@@ -2378,16 +2413,16 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>170</v>
@@ -2396,7 +2431,7 @@
         <v>173</v>
       </c>
       <c r="G53" s="12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
@@ -2405,16 +2440,16 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="10" t="s">
-        <v>136</v>
+        <v>199</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>138</v>
+        <v>198</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>170</v>
@@ -2423,7 +2458,7 @@
         <v>173</v>
       </c>
       <c r="G54" s="12">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
@@ -2432,16 +2467,16 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="10" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>170</v>
@@ -2450,7 +2485,7 @@
         <v>173</v>
       </c>
       <c r="G55" s="12">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
@@ -2459,16 +2494,16 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="10" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>170</v>
@@ -2477,7 +2512,7 @@
         <v>173</v>
       </c>
       <c r="G56" s="12">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
@@ -2486,16 +2521,16 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="10" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>170</v>
@@ -2504,7 +2539,7 @@
         <v>173</v>
       </c>
       <c r="G57" s="12">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
@@ -2513,16 +2548,16 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="10" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>170</v>
@@ -2531,7 +2566,7 @@
         <v>173</v>
       </c>
       <c r="G58" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
@@ -2540,16 +2575,16 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>170</v>
@@ -2558,7 +2593,7 @@
         <v>173</v>
       </c>
       <c r="G59" s="12">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H59" s="12"/>
       <c r="I59" s="12"/>
@@ -2567,16 +2602,16 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="10" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>170</v>
@@ -2585,7 +2620,7 @@
         <v>173</v>
       </c>
       <c r="G60" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
@@ -2594,16 +2629,16 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="10" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>170</v>
@@ -2612,7 +2647,7 @@
         <v>173</v>
       </c>
       <c r="G61" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
@@ -2621,16 +2656,16 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="10" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>170</v>
@@ -2647,27 +2682,81 @@
       <c r="K62" s="11"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="4"/>
-      <c r="K63" s="14"/>
+      <c r="A63" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G63" s="12">
+        <v>1</v>
+      </c>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="14"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="K64" s="14"/>
+      <c r="A64" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G64" s="12">
+        <v>1</v>
+      </c>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="4"/>
+      <c r="K65" s="14"/>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="14"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="K66" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C25:I25"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C45:K45"/>
+    <mergeCell ref="C46:K46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
